--- a/ValidationTable.xlsx
+++ b/ValidationTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Google Drive\Tesi_Silvestri\Tool\Validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Google Drive\Tesi_Silvestri\Tool\segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6670E2-574A-4878-9E3F-DDE7F6438B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6B3627-6488-404F-B823-CF7FED6A95B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17EA1954-2E11-4BCF-B84A-34F1C7BE303A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>PN Length</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>1 su 5</t>
+  </si>
+  <si>
+    <t>95 Transitions</t>
+  </si>
+  <si>
+    <t>2 su 5</t>
+  </si>
+  <si>
+    <t>136 Transitions</t>
+  </si>
+  <si>
+    <t>175 Transitions</t>
+  </si>
+  <si>
+    <t>&gt;20</t>
+  </si>
+  <si>
+    <t>263 Transitions</t>
   </si>
 </sst>
 </file>
@@ -104,7 +122,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -149,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -159,19 +177,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -491,7 +512,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,15 +685,204 @@
       <c r="D6" s="4">
         <v>135966</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>371.63200000000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>573.40200000000004</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10.445</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>23.856999999999999</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4">
+        <v>67374</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>64.165999999999997</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3">
+        <v>30.466000000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60.625</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>116.5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>145.73400000000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
       <c r="J8" s="1"/>
     </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="O16" s="2"/>
     </row>
   </sheetData>
